--- a/03_Results/06_07RE_ImpactMortalityLandCoverPanel.xlsx
+++ b/03_Results/06_07RE_ImpactMortalityLandCoverPanel.xlsx
@@ -23,7 +23,7 @@
     <t>ci95</t>
   </si>
   <si>
-    <t>Prevalence (confirmed/1000 cap)</t>
+    <t>Prevalence</t>
   </si>
   <si>
     <t>Preventation Stringency</t>
@@ -47,22 +47,22 @@
     <t>(0.00634 - 0.00701)</t>
   </si>
   <si>
-    <t>(-1e-05 - 0.00097)</t>
-  </si>
-  <si>
-    <t>(-0.00141 - -0.00062)</t>
-  </si>
-  <si>
-    <t>(-0.00616 - -0.00438)</t>
-  </si>
-  <si>
-    <t>(0.00287 - 0.00549)</t>
-  </si>
-  <si>
-    <t>(0.00224 - 0.00294)</t>
-  </si>
-  <si>
-    <t>(-0.09254 - -0.07606)</t>
+    <t>(-0.00101 - 2e-05)</t>
+  </si>
+  <si>
+    <t>(-0.00424 - -0.00185)</t>
+  </si>
+  <si>
+    <t>(-0.01846 - -0.01313)</t>
+  </si>
+  <si>
+    <t>(0.00844 - 0.01664)</t>
+  </si>
+  <si>
+    <t>(0.00224 - 0.00293)</t>
+  </si>
+  <si>
+    <t>(-0.09183 - -0.07677)</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4.8E-4</v>
+        <v>-4.9E-4</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -151,7 +151,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00102</v>
+        <v>-0.00304</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -162,7 +162,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00527</v>
+        <v>-0.0158</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -173,7 +173,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00418</v>
+        <v>0.01254</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
